--- a/Lifting_Line/VALIDATION/data.xlsx
+++ b/Lifting_Line/VALIDATION/data.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E79"/>
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
